--- a/xlsx/a69_f48_cUPPachuca.xlsx
+++ b/xlsx/a69_f48_cUPPachuca.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2DA ENTREGA DEL REPORTE DE LAS 48 FRACCIONES COMUNES\ENTREGA 3ER TRIMESTRE DE LAS 48 FRACIONES COMUNES\Vo. Bo. #1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\MAYDELI\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="8580"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8355"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -217,11 +217,6 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -231,11 +226,16 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="justify" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="justify" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -544,8 +544,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" topLeftCell="E2" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -556,7 +556,7 @@
     <col min="4" max="4" width="61.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="73.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12" customWidth="1"/>
-    <col min="7" max="7" width="20" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.140625" customWidth="1"/>
     <col min="8" max="8" width="61.140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -566,32 +566,32 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="3" t="s">
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="3" t="s">
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="4"/>
+      <c r="H2" s="7"/>
     </row>
-    <row r="3" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:8" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="5" t="s">
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
       <c r="G3" s="9" t="s">
         <v>6</v>
       </c>
@@ -623,7 +623,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -650,16 +650,16 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
     </row>
     <row r="7" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -688,28 +688,28 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
+      <c r="A8" s="3">
         <v>2020</v>
       </c>
       <c r="B8" s="2">
-        <v>44013</v>
+        <v>44105</v>
       </c>
       <c r="C8" s="2">
-        <v>44104</v>
-      </c>
-      <c r="D8" s="7" t="s">
+        <v>44196</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F8" s="8">
-        <v>44114</v>
-      </c>
-      <c r="G8" s="8">
-        <v>44114</v>
-      </c>
-      <c r="H8" s="6"/>
+      <c r="F8" s="5">
+        <v>44206</v>
+      </c>
+      <c r="G8" s="5">
+        <v>44206</v>
+      </c>
+      <c r="H8" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/xlsx/a69_f48_cUPPachuca.xlsx
+++ b/xlsx/a69_f48_cUPPachuca.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\MAYDELI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\Entrega SIPOT\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8355"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7065"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -114,7 +114,7 @@
     <t>http://www.upp.edu.mx/front/?p=3071</t>
   </si>
   <si>
-    <t>Departamento de Idiomas y Lenguas (UPP)</t>
+    <t>Dirección de Planeación (UPP)</t>
   </si>
 </sst>
 </file>
@@ -223,8 +223,8 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -544,8 +544,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E2" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="F3" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -623,7 +623,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -688,14 +688,14 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
-        <v>2020</v>
+      <c r="A8" s="5">
+        <v>2021</v>
       </c>
       <c r="B8" s="2">
-        <v>44105</v>
+        <v>44197</v>
       </c>
       <c r="C8" s="2">
-        <v>44196</v>
+        <v>44286</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>30</v>
@@ -703,11 +703,11 @@
       <c r="E8" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F8" s="5">
-        <v>44206</v>
-      </c>
-      <c r="G8" s="5">
-        <v>44206</v>
+      <c r="F8" s="2">
+        <v>44298</v>
+      </c>
+      <c r="G8" s="2">
+        <v>44298</v>
       </c>
       <c r="H8" s="3"/>
     </row>

--- a/xlsx/a69_f48_cUPPachuca.xlsx
+++ b/xlsx/a69_f48_cUPPachuca.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\Entrega SIPOT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\Faltantes UPP 2DO TRIMESTRE21\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -172,7 +172,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -200,6 +200,15 @@
         <color auto="1"/>
       </left>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -234,7 +243,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -544,8 +553,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F3" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -692,10 +701,10 @@
         <v>2021</v>
       </c>
       <c r="B8" s="2">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C8" s="2">
-        <v>44286</v>
+        <v>44377</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>30</v>
@@ -704,10 +713,10 @@
         <v>31</v>
       </c>
       <c r="F8" s="2">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="G8" s="2">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="H8" s="3"/>
     </row>

--- a/xlsx/a69_f48_cUPPachuca.xlsx
+++ b/xlsx/a69_f48_cUPPachuca.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\Faltantes UPP 2DO TRIMESTRE21\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\SIPOT 3ER TRIMETRES 2021\3ER TRIMESTRE 2021 PAGINA OFICIAL\EXCELL\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -553,8 +553,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:C3"/>
+    <sheetView tabSelected="1" topLeftCell="E2" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -701,10 +701,10 @@
         <v>2021</v>
       </c>
       <c r="B8" s="2">
-        <v>44287</v>
+        <v>44378</v>
       </c>
       <c r="C8" s="2">
-        <v>44377</v>
+        <v>44469</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>30</v>
@@ -713,10 +713,10 @@
         <v>31</v>
       </c>
       <c r="F8" s="2">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="G8" s="2">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="H8" s="3"/>
     </row>

--- a/xlsx/a69_f48_cUPPachuca.xlsx
+++ b/xlsx/a69_f48_cUPPachuca.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\SIPOT 3ER TRIMETRES 2021\3ER TRIMESTRE 2021 PAGINA OFICIAL\EXCELL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2022\SIPOT\4to trimestre 2021\4to Trimestre SIPOT 2021 Pagina Oficial\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -553,8 +553,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E2" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -701,10 +701,10 @@
         <v>2021</v>
       </c>
       <c r="B8" s="2">
-        <v>44378</v>
+        <v>44470</v>
       </c>
       <c r="C8" s="2">
-        <v>44469</v>
+        <v>44561</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>30</v>
@@ -713,10 +713,10 @@
         <v>31</v>
       </c>
       <c r="F8" s="2">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="G8" s="2">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="H8" s="3"/>
     </row>

--- a/xlsx/a69_f48_cUPPachuca.xlsx
+++ b/xlsx/a69_f48_cUPPachuca.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2022\SIPOT\4to trimestre 2021\4to Trimestre SIPOT 2021 Pagina Oficial\Excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7065"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15600" windowHeight="7065"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -307,7 +302,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -342,7 +337,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -553,8 +548,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="F2" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -698,13 +693,13 @@
     </row>
     <row r="8" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B8" s="2">
-        <v>44470</v>
+        <v>44562</v>
       </c>
       <c r="C8" s="2">
-        <v>44561</v>
+        <v>44651</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>30</v>
@@ -713,10 +708,10 @@
         <v>31</v>
       </c>
       <c r="F8" s="2">
-        <v>44571</v>
+        <v>44659</v>
       </c>
       <c r="G8" s="2">
-        <v>44571</v>
+        <v>44659</v>
       </c>
       <c r="H8" s="3"/>
     </row>

--- a/xlsx/a69_f48_cUPPachuca.xlsx
+++ b/xlsx/a69_f48_cUPPachuca.xlsx
@@ -129,11 +129,13 @@
       <sz val="11"/>
       <color indexed="9"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
@@ -548,8 +550,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F2" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -696,10 +698,10 @@
         <v>2022</v>
       </c>
       <c r="B8" s="2">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C8" s="2">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>30</v>
@@ -708,10 +710,10 @@
         <v>31</v>
       </c>
       <c r="F8" s="2">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="G8" s="2">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="H8" s="3"/>
     </row>

--- a/xlsx/a69_f48_cUPPachuca.xlsx
+++ b/xlsx/a69_f48_cUPPachuca.xlsx
@@ -551,7 +551,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -698,10 +698,10 @@
         <v>2022</v>
       </c>
       <c r="B8" s="2">
-        <v>44652</v>
+        <v>44743</v>
       </c>
       <c r="C8" s="2">
-        <v>44742</v>
+        <v>44834</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>30</v>
@@ -710,10 +710,10 @@
         <v>31</v>
       </c>
       <c r="F8" s="2">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="G8" s="2">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="H8" s="3"/>
     </row>

--- a/xlsx/a69_f48_cUPPachuca.xlsx
+++ b/xlsx/a69_f48_cUPPachuca.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\4to Trimestre 2022\Recepción de Información\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A893263E-E0CD-49AC-BB38-F8EF8848B7A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15600" windowHeight="7065"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -115,7 +121,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -304,7 +310,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -337,9 +343,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -372,6 +395,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -547,11 +587,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="E2" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -698,10 +738,10 @@
         <v>2022</v>
       </c>
       <c r="B8" s="2">
-        <v>44743</v>
+        <v>44835</v>
       </c>
       <c r="C8" s="2">
-        <v>44834</v>
+        <v>44926</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>30</v>
@@ -710,10 +750,10 @@
         <v>31</v>
       </c>
       <c r="F8" s="2">
-        <v>44844</v>
+        <v>44936</v>
       </c>
       <c r="G8" s="2">
-        <v>44844</v>
+        <v>44936</v>
       </c>
       <c r="H8" s="3"/>
     </row>
@@ -728,7 +768,7 @@
     <mergeCell ref="G3:H3"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D8" r:id="rId1"/>
+    <hyperlink ref="D8" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>

--- a/xlsx/a69_f48_cUPPachuca.xlsx
+++ b/xlsx/a69_f48_cUPPachuca.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\4to Trimestre 2022\Recepción de Información\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A893263E-E0CD-49AC-BB38-F8EF8848B7A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -115,13 +109,13 @@
     <t>http://www.upp.edu.mx/front/?p=3071</t>
   </si>
   <si>
-    <t>Dirección de Planeación (UPP)</t>
+    <t>Unidad de Transparencia Gubernamental (UPP)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -310,7 +304,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -343,26 +337,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -395,23 +372,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -587,11 +547,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E2" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -735,25 +695,25 @@
     </row>
     <row r="8" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B8" s="2">
-        <v>44835</v>
+        <v>44927</v>
       </c>
       <c r="C8" s="2">
-        <v>44926</v>
+        <v>45016</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="5" t="s">
         <v>31</v>
       </c>
       <c r="F8" s="2">
-        <v>44936</v>
+        <v>45026</v>
       </c>
       <c r="G8" s="2">
-        <v>44936</v>
+        <v>45026</v>
       </c>
       <c r="H8" s="3"/>
     </row>
@@ -768,7 +728,7 @@
     <mergeCell ref="G3:H3"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D8" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="D8" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>

--- a/xlsx/a69_f48_cUPPachuca.xlsx
+++ b/xlsx/a69_f48_cUPPachuca.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\2023\SIPOT\Vo. Bo. Uno 2do Tri 2023\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F0D900D6-FCFA-4BE6-BE6C-E33AC44F12A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -115,7 +121,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -129,13 +135,11 @@
       <sz val="11"/>
       <color indexed="9"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <u/>
@@ -169,7 +173,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -201,36 +205,36 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -240,7 +244,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="justify" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -304,7 +308,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -337,9 +341,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -372,6 +393,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -547,11 +585,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -561,49 +599,52 @@
     <col min="3" max="3" width="38.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="61.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="73.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" customWidth="1"/>
-    <col min="7" max="7" width="23.140625" customWidth="1"/>
-    <col min="8" max="8" width="61.140625" customWidth="1"/>
+    <col min="6" max="6" width="31.28515625" customWidth="1"/>
+    <col min="7" max="7" width="28.28515625" customWidth="1"/>
+    <col min="8" max="8" width="23.140625" customWidth="1"/>
+    <col min="9" max="9" width="40.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="6" t="s">
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="6" t="s">
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="7"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
     </row>
-    <row r="3" spans="1:8" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+    <row r="3" spans="1:9" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="8" t="s">
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="9" t="s">
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="10"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
     </row>
-    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -629,7 +670,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -655,19 +696,20 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
     </row>
-    <row r="7" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>22</v>
       </c>
@@ -689,48 +731,52 @@
       <c r="G7" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H7" s="7" t="s">
         <v>29</v>
       </c>
+      <c r="I7" s="7"/>
     </row>
-    <row r="8" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
         <v>2023</v>
       </c>
-      <c r="B8" s="2">
-        <v>44927</v>
-      </c>
-      <c r="C8" s="2">
-        <v>45016</v>
+      <c r="B8" s="3">
+        <v>45017</v>
+      </c>
+      <c r="C8" s="3">
+        <v>45107</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F8" s="2">
-        <v>45026</v>
-      </c>
-      <c r="G8" s="2">
-        <v>45026</v>
-      </c>
-      <c r="H8" s="3"/>
+      <c r="F8" s="3">
+        <v>45117</v>
+      </c>
+      <c r="G8" s="3">
+        <v>45117</v>
+      </c>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="A6:H6"/>
+  <mergeCells count="9">
+    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="H8:I8"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="D2:F2"/>
-    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="G2:I2"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="D3:F3"/>
-    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G3:I3"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D8" r:id="rId1"/>
+    <hyperlink ref="D8" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>